--- a/Code/Results/Cases/Case_9_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04134556484312</v>
+        <v>24.03928945704553</v>
       </c>
       <c r="C2">
-        <v>14.11565319417122</v>
+        <v>14.14538518697161</v>
       </c>
       <c r="D2">
-        <v>6.00537228445516</v>
+        <v>6.030905835305638</v>
       </c>
       <c r="E2">
-        <v>8.223598801285751</v>
+        <v>8.149831203399916</v>
       </c>
       <c r="F2">
-        <v>20.15589109493623</v>
+        <v>19.73437219376358</v>
       </c>
       <c r="G2">
-        <v>21.8697860232484</v>
+        <v>20.59652104396978</v>
       </c>
       <c r="H2">
-        <v>2.272482492611672</v>
+        <v>2.180425268178747</v>
       </c>
       <c r="I2">
-        <v>3.108912714167807</v>
+        <v>2.982130035828898</v>
       </c>
       <c r="J2">
-        <v>9.002631991394409</v>
+        <v>9.254563748167364</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.119358452891878</v>
+        <v>11.45872753375738</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.937707005545946</v>
       </c>
       <c r="N2">
-        <v>7.904190868358958</v>
+        <v>6.067137223616214</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.061204978306998</v>
       </c>
       <c r="Q2">
-        <v>14.55246393108074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.22406055325358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47512920458483</v>
+        <v>22.46835932207589</v>
       </c>
       <c r="C3">
-        <v>13.53207033049104</v>
+        <v>13.45223181733886</v>
       </c>
       <c r="D3">
-        <v>5.85758193095076</v>
+        <v>5.884730478004094</v>
       </c>
       <c r="E3">
-        <v>8.16214913375147</v>
+        <v>8.099135218106696</v>
       </c>
       <c r="F3">
-        <v>20.04143293585055</v>
+        <v>19.65319769633424</v>
       </c>
       <c r="G3">
-        <v>21.69001208998357</v>
+        <v>20.50513974065138</v>
       </c>
       <c r="H3">
-        <v>2.478085909019662</v>
+        <v>2.372221564970335</v>
       </c>
       <c r="I3">
-        <v>3.273117844584218</v>
+        <v>3.128611563677953</v>
       </c>
       <c r="J3">
-        <v>9.063898369878052</v>
+        <v>9.286256626225571</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.104309898409591</v>
+        <v>11.66859386991328</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.161562399756969</v>
       </c>
       <c r="N3">
-        <v>7.592456778858576</v>
+        <v>6.053241598267479</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.743072067243951</v>
       </c>
       <c r="Q3">
-        <v>14.59286547977512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.28348256136898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45510084600533</v>
+        <v>21.44451137287708</v>
       </c>
       <c r="C4">
-        <v>13.16377310345606</v>
+        <v>13.01336755713466</v>
       </c>
       <c r="D4">
-        <v>5.765883568700511</v>
+        <v>5.794240762451063</v>
       </c>
       <c r="E4">
-        <v>8.123682287844874</v>
+        <v>8.067343587616069</v>
       </c>
       <c r="F4">
-        <v>19.98076352604709</v>
+        <v>19.6112423469197</v>
       </c>
       <c r="G4">
-        <v>21.59455361071888</v>
+        <v>20.46510824100834</v>
       </c>
       <c r="H4">
-        <v>2.608852524457437</v>
+        <v>2.494249874357781</v>
       </c>
       <c r="I4">
-        <v>3.378118537170919</v>
+        <v>3.222580431577225</v>
       </c>
       <c r="J4">
-        <v>9.105033353131764</v>
+        <v>9.307261639505281</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.094459056749076</v>
+        <v>11.80255184772091</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.315338321751408</v>
       </c>
       <c r="N4">
-        <v>7.395333587804448</v>
+        <v>6.044157266374681</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.542305772275607</v>
       </c>
       <c r="Q4">
-        <v>14.62544305774161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.32624583890545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0247636098261</v>
+        <v>21.01236287569349</v>
       </c>
       <c r="C5">
-        <v>13.02159332319553</v>
+        <v>12.84180387586242</v>
       </c>
       <c r="D5">
-        <v>5.728765412920122</v>
+        <v>5.757657030497123</v>
       </c>
       <c r="E5">
-        <v>8.106657377196134</v>
+        <v>8.05311053791567</v>
       </c>
       <c r="F5">
-        <v>19.95035528770949</v>
+        <v>19.58829588212447</v>
       </c>
       <c r="G5">
-        <v>21.54535910435617</v>
+        <v>20.43898159848094</v>
       </c>
       <c r="H5">
-        <v>2.663551558774447</v>
+        <v>2.545314878303036</v>
       </c>
       <c r="I5">
-        <v>3.424588591422054</v>
+        <v>3.264985364796019</v>
       </c>
       <c r="J5">
-        <v>9.120415068812541</v>
+        <v>9.314029650911767</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.089872452972696</v>
+        <v>11.85392099206769</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.380234192489954</v>
       </c>
       <c r="N5">
-        <v>7.316038820059396</v>
+        <v>6.039929669444547</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.461499962960318</v>
       </c>
       <c r="Q5">
-        <v>14.63495427472263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.33974310141032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95245529455704</v>
+        <v>20.93972762333867</v>
       </c>
       <c r="C6">
-        <v>13.01043635398247</v>
+        <v>12.8258976618345</v>
       </c>
       <c r="D6">
-        <v>5.723140391506603</v>
+        <v>5.752106223712203</v>
       </c>
       <c r="E6">
-        <v>8.10239574296517</v>
+        <v>8.049380413559868</v>
       </c>
       <c r="F6">
-        <v>19.93560035137668</v>
+        <v>19.57509078980393</v>
       </c>
       <c r="G6">
-        <v>21.52035170857124</v>
+        <v>20.41814611250177</v>
       </c>
       <c r="H6">
-        <v>2.67301731883167</v>
+        <v>2.55416611704341</v>
       </c>
       <c r="I6">
-        <v>3.435738209352093</v>
+        <v>3.27607692848813</v>
       </c>
       <c r="J6">
-        <v>9.120281266667563</v>
+        <v>9.312521963633728</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.088593681116401</v>
+        <v>11.85704794973058</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.389122067642022</v>
       </c>
       <c r="N6">
-        <v>7.305718134492794</v>
+        <v>6.038750681005306</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.450797685977172</v>
       </c>
       <c r="Q6">
-        <v>14.62974183468313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.33542042696769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44944109613233</v>
+        <v>21.43882760640435</v>
       </c>
       <c r="C7">
-        <v>13.19585640340239</v>
+        <v>13.04222222120738</v>
       </c>
       <c r="D7">
-        <v>5.766872433606868</v>
+        <v>5.79800778114438</v>
       </c>
       <c r="E7">
-        <v>8.119597277567269</v>
+        <v>8.063561934347369</v>
       </c>
       <c r="F7">
-        <v>19.95353679454382</v>
+        <v>19.57192925282441</v>
       </c>
       <c r="G7">
-        <v>21.54744358014456</v>
+        <v>20.4900924108301</v>
       </c>
       <c r="H7">
-        <v>2.610419842224349</v>
+        <v>2.496283849618174</v>
       </c>
       <c r="I7">
-        <v>3.387655742338706</v>
+        <v>3.234173286558349</v>
       </c>
       <c r="J7">
-        <v>9.097765021546175</v>
+        <v>9.26777826170982</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.093035169750103</v>
+        <v>11.78358536444756</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.307815456169473</v>
       </c>
       <c r="N7">
-        <v>7.402145023593324</v>
+        <v>6.04246477943157</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.548962286498423</v>
       </c>
       <c r="Q7">
-        <v>14.60673016100074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.29841898626729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.513458282925</v>
+        <v>23.50996066947825</v>
       </c>
       <c r="C8">
-        <v>13.95979402296411</v>
+        <v>13.94270856488839</v>
       </c>
       <c r="D8">
-        <v>5.956554101856226</v>
+        <v>5.991700786155923</v>
       </c>
       <c r="E8">
-        <v>8.197602239366674</v>
+        <v>8.128169516091077</v>
       </c>
       <c r="F8">
-        <v>20.07938926653152</v>
+        <v>19.62801324861837</v>
       </c>
       <c r="G8">
-        <v>21.74407730923081</v>
+        <v>20.73755820215881</v>
       </c>
       <c r="H8">
-        <v>2.343461157955744</v>
+        <v>2.248309380937857</v>
       </c>
       <c r="I8">
-        <v>3.176082130862916</v>
+        <v>3.046789671866446</v>
       </c>
       <c r="J8">
-        <v>9.013164416390923</v>
+        <v>9.150222816079204</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.112597164835275</v>
+        <v>11.49805429292093</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.992040405897992</v>
       </c>
       <c r="N8">
-        <v>7.807855828718012</v>
+        <v>6.059751547797884</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.962889178718924</v>
       </c>
       <c r="Q8">
-        <v>14.53994177473291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.18686441719816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09934750233094</v>
+        <v>27.10282051653</v>
       </c>
       <c r="C9">
-        <v>15.31618013073669</v>
+        <v>15.55041848545894</v>
       </c>
       <c r="D9">
-        <v>6.316681518967079</v>
+        <v>6.350953170840905</v>
       </c>
       <c r="E9">
-        <v>8.351351553715029</v>
+        <v>8.255604857694768</v>
       </c>
       <c r="F9">
-        <v>20.45159468512015</v>
+        <v>19.89630415393532</v>
       </c>
       <c r="G9">
-        <v>22.33357153618894</v>
+        <v>21.17473159051084</v>
       </c>
       <c r="H9">
-        <v>1.853790852823913</v>
+        <v>1.791990267891748</v>
       </c>
       <c r="I9">
-        <v>2.779283268643622</v>
+        <v>2.691949095846673</v>
       </c>
       <c r="J9">
-        <v>8.889652968595225</v>
+        <v>9.059349696546352</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.148447917139689</v>
+        <v>11.01954720066848</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.531041566398756</v>
       </c>
       <c r="N9">
-        <v>8.541852612490864</v>
+        <v>6.092770307810159</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.714451118033354</v>
       </c>
       <c r="Q9">
-        <v>14.50740080578979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.0888175675298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.45474709409385</v>
+        <v>29.45935646681416</v>
       </c>
       <c r="C10">
-        <v>16.33902916608772</v>
+        <v>16.71206593924121</v>
       </c>
       <c r="D10">
-        <v>6.539445986415323</v>
+        <v>6.587941939488714</v>
       </c>
       <c r="E10">
-        <v>8.399306497855861</v>
+        <v>8.288958245175346</v>
       </c>
       <c r="F10">
-        <v>20.62313962663747</v>
+        <v>19.92640733631473</v>
       </c>
       <c r="G10">
-        <v>22.62640449680704</v>
+        <v>21.78721616810795</v>
       </c>
       <c r="H10">
-        <v>1.602659476969663</v>
+        <v>1.637914940694726</v>
       </c>
       <c r="I10">
-        <v>2.517533819683488</v>
+        <v>2.518823790694666</v>
       </c>
       <c r="J10">
-        <v>8.781943639435847</v>
+        <v>8.794963839190775</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.163698601668674</v>
+        <v>10.64139009384489</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.216320003723711</v>
       </c>
       <c r="N10">
-        <v>8.977626581117832</v>
+        <v>6.106962551000561</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.161224553290772</v>
       </c>
       <c r="Q10">
-        <v>14.43563533029135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.91608949452453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.46318346942036</v>
+        <v>30.46733790653477</v>
       </c>
       <c r="C11">
-        <v>17.43788397944827</v>
+        <v>17.73558655883338</v>
       </c>
       <c r="D11">
-        <v>6.341782129611323</v>
+        <v>6.413903773675098</v>
       </c>
       <c r="E11">
-        <v>7.97954165131716</v>
+        <v>7.888008393794478</v>
       </c>
       <c r="F11">
-        <v>19.4699588438641</v>
+        <v>18.71303257622106</v>
       </c>
       <c r="G11">
-        <v>21.00292528341596</v>
+        <v>21.15381631514157</v>
       </c>
       <c r="H11">
-        <v>2.642338239528375</v>
+        <v>2.657076156685224</v>
       </c>
       <c r="I11">
-        <v>2.546844881912741</v>
+        <v>2.599666865039433</v>
       </c>
       <c r="J11">
-        <v>8.443792667913698</v>
+        <v>8.210499019094069</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.156450485832933</v>
+        <v>10.23737769368693</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.707504321768059</v>
       </c>
       <c r="N11">
-        <v>8.546806602919533</v>
+        <v>6.116037451056922</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.708738692377407</v>
       </c>
       <c r="Q11">
-        <v>13.66986527644372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.10676058365441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.83520902643573</v>
+        <v>30.83914050027709</v>
       </c>
       <c r="C12">
-        <v>18.12766851292948</v>
+        <v>18.3362321525041</v>
       </c>
       <c r="D12">
-        <v>6.124764492235841</v>
+        <v>6.203646648001246</v>
       </c>
       <c r="E12">
-        <v>7.737688540075184</v>
+        <v>7.659290066649151</v>
       </c>
       <c r="F12">
-        <v>18.49246821672433</v>
+        <v>17.76276021143355</v>
       </c>
       <c r="G12">
-        <v>19.61845505524624</v>
+        <v>20.27478993584155</v>
       </c>
       <c r="H12">
-        <v>4.053317862936665</v>
+        <v>4.045475845802295</v>
       </c>
       <c r="I12">
-        <v>2.565323579543995</v>
+        <v>2.614245020595194</v>
       </c>
       <c r="J12">
-        <v>8.193256678277038</v>
+        <v>7.928016246192671</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.220299105536204</v>
+        <v>10.04887440858205</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.396756515071362</v>
       </c>
       <c r="N12">
-        <v>8.081709578513035</v>
+        <v>6.191637459201607</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.222727693806601</v>
       </c>
       <c r="Q12">
-        <v>13.06535399729874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.52518158169212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.75327282363037</v>
+        <v>30.75735233682197</v>
       </c>
       <c r="C13">
-        <v>18.6018927283114</v>
+        <v>18.711866172812</v>
       </c>
       <c r="D13">
-        <v>5.879231711886569</v>
+        <v>5.946783696786053</v>
       </c>
       <c r="E13">
-        <v>7.62072600269617</v>
+        <v>7.55300884318621</v>
       </c>
       <c r="F13">
-        <v>17.54944268176461</v>
+        <v>16.94312168396952</v>
       </c>
       <c r="G13">
-        <v>18.25563931330024</v>
+        <v>18.8929354442355</v>
       </c>
       <c r="H13">
-        <v>5.502451498438692</v>
+        <v>5.495613216498144</v>
       </c>
       <c r="I13">
-        <v>2.535147800600729</v>
+        <v>2.587277461179609</v>
       </c>
       <c r="J13">
-        <v>7.98492983163014</v>
+        <v>7.84146384366531</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.335434884114193</v>
+        <v>9.972565943665639</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.224636308361168</v>
       </c>
       <c r="N13">
-        <v>7.564099423504294</v>
+        <v>6.314143952462565</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.682854386358569</v>
       </c>
       <c r="Q13">
-        <v>12.52170701488197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.07606563311284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.48942239192949</v>
+        <v>30.49371559621467</v>
       </c>
       <c r="C14">
-        <v>18.85123011148229</v>
+        <v>18.88648152804717</v>
       </c>
       <c r="D14">
-        <v>5.694401807572446</v>
+        <v>5.746835184406282</v>
       </c>
       <c r="E14">
-        <v>7.614572507993107</v>
+        <v>7.553351130898101</v>
       </c>
       <c r="F14">
-        <v>16.90522417470344</v>
+        <v>16.42257584158762</v>
       </c>
       <c r="G14">
-        <v>17.30636589964799</v>
+        <v>17.70430274197593</v>
       </c>
       <c r="H14">
-        <v>6.523148688090487</v>
+        <v>6.51593997016121</v>
       </c>
       <c r="I14">
-        <v>2.509848551472023</v>
+        <v>2.551512460824156</v>
       </c>
       <c r="J14">
-        <v>7.8590263689885</v>
+        <v>7.848022354395128</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.445177737742982</v>
+        <v>9.960571233453329</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.175756835586578</v>
       </c>
       <c r="N14">
-        <v>7.177765093424735</v>
+        <v>6.425738307221467</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.280629492557949</v>
       </c>
       <c r="Q14">
-        <v>12.17040080020521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.81718055361909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.32710316241169</v>
+        <v>30.3314848605754</v>
       </c>
       <c r="C15">
-        <v>18.87700760800988</v>
+        <v>18.89195371376523</v>
       </c>
       <c r="D15">
-        <v>5.643892949650643</v>
+        <v>5.68972991713732</v>
       </c>
       <c r="E15">
-        <v>7.622904453299221</v>
+        <v>7.563763650865731</v>
       </c>
       <c r="F15">
-        <v>16.74967698184413</v>
+        <v>16.3129132966464</v>
       </c>
       <c r="G15">
-        <v>17.06922497372628</v>
+        <v>17.31719743020605</v>
       </c>
       <c r="H15">
-        <v>6.760254288982276</v>
+        <v>6.752544885399954</v>
       </c>
       <c r="I15">
-        <v>2.536173423516923</v>
+        <v>2.536136605820206</v>
       </c>
       <c r="J15">
-        <v>7.835401820624766</v>
+        <v>7.877486925396688</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.473481154467033</v>
+        <v>9.969433589738022</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.189093434279517</v>
       </c>
       <c r="N15">
-        <v>7.074219545118275</v>
+        <v>6.453765716941634</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.172976949074114</v>
       </c>
       <c r="Q15">
-        <v>12.09334521660647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.77377884688511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.38121655140784</v>
+        <v>29.38576218865159</v>
       </c>
       <c r="C16">
-        <v>18.40212998725501</v>
+        <v>18.40109993277921</v>
       </c>
       <c r="D16">
-        <v>5.593594318895163</v>
+        <v>5.615641508866068</v>
       </c>
       <c r="E16">
-        <v>7.619840025900851</v>
+        <v>7.567327074174496</v>
       </c>
       <c r="F16">
-        <v>16.84729477852921</v>
+        <v>16.53963763783502</v>
       </c>
       <c r="G16">
-        <v>17.17178692729617</v>
+        <v>16.69106940870099</v>
       </c>
       <c r="H16">
-        <v>6.558127925069505</v>
+        <v>6.545885929034571</v>
       </c>
       <c r="I16">
-        <v>2.648172236924625</v>
+        <v>2.588540294459508</v>
       </c>
       <c r="J16">
-        <v>7.921993422294802</v>
+        <v>8.159108500031373</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.436417523404176</v>
+        <v>10.0803103175808</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.413834743873404</v>
       </c>
       <c r="N16">
-        <v>6.976510635175116</v>
+        <v>6.413518450010777</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.073856802579606</v>
       </c>
       <c r="Q16">
-        <v>12.22715187935477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.99933713861621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78599553035098</v>
+        <v>28.79038753557491</v>
       </c>
       <c r="C17">
-        <v>17.89365871216183</v>
+        <v>17.91710766472302</v>
       </c>
       <c r="D17">
-        <v>5.654698645879138</v>
+        <v>5.669286608052572</v>
       </c>
       <c r="E17">
-        <v>7.609313447711109</v>
+        <v>7.557311659761538</v>
       </c>
       <c r="F17">
-        <v>17.26162481570341</v>
+        <v>16.97604050221634</v>
       </c>
       <c r="G17">
-        <v>17.75408694725397</v>
+        <v>16.94247164431297</v>
       </c>
       <c r="H17">
-        <v>5.83018645001577</v>
+        <v>5.813543691246036</v>
       </c>
       <c r="I17">
-        <v>2.711080128476607</v>
+        <v>2.643321246562163</v>
       </c>
       <c r="J17">
-        <v>8.053678687105821</v>
+        <v>8.368014908597221</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.345013756162898</v>
+        <v>10.18907487967596</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.599602246512369</v>
       </c>
       <c r="N17">
-        <v>7.111657081699028</v>
+        <v>6.320001363077877</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.216282799610124</v>
       </c>
       <c r="Q17">
-        <v>12.51255212724642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.29911969556416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.4385041045785</v>
+        <v>28.44278425709284</v>
       </c>
       <c r="C18">
-        <v>17.28134086005233</v>
+        <v>17.37124612078703</v>
       </c>
       <c r="D18">
-        <v>5.818798831447421</v>
+        <v>5.833606282428246</v>
       </c>
       <c r="E18">
-        <v>7.658663911083216</v>
+        <v>7.600112554981139</v>
       </c>
       <c r="F18">
-        <v>18.0195653802241</v>
+        <v>17.6912537680442</v>
       </c>
       <c r="G18">
-        <v>18.84974026005557</v>
+        <v>17.83651030238814</v>
       </c>
       <c r="H18">
-        <v>4.592396328396958</v>
+        <v>4.569813613878801</v>
       </c>
       <c r="I18">
-        <v>2.726250025294587</v>
+        <v>2.653314473860771</v>
       </c>
       <c r="J18">
-        <v>8.246621087472736</v>
+        <v>8.575607193707722</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.226886508185572</v>
+        <v>10.33340357081763</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.794706765115422</v>
       </c>
       <c r="N18">
-        <v>7.462888162718031</v>
+        <v>6.198560221430713</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.583276391179498</v>
       </c>
       <c r="Q18">
-        <v>12.97867696547478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.73319772437427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32069473617954</v>
+        <v>28.32501163700832</v>
       </c>
       <c r="C19">
-        <v>16.7067077180223</v>
+        <v>16.88942822966471</v>
       </c>
       <c r="D19">
-        <v>6.057094885451304</v>
+        <v>6.076259014334838</v>
       </c>
       <c r="E19">
-        <v>7.846011366158907</v>
+        <v>7.772916002664267</v>
       </c>
       <c r="F19">
-        <v>18.96918571385605</v>
+        <v>18.55776741052241</v>
       </c>
       <c r="G19">
-        <v>20.21428152470751</v>
+        <v>19.05041229592403</v>
       </c>
       <c r="H19">
-        <v>3.133645618356195</v>
+        <v>3.101648074553061</v>
       </c>
       <c r="I19">
-        <v>2.719794514682368</v>
+        <v>2.648570272508048</v>
       </c>
       <c r="J19">
-        <v>8.468325475776396</v>
+        <v>8.776404531651501</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.145224810312824</v>
+        <v>10.50734646279495</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.00076951037391</v>
       </c>
       <c r="N19">
-        <v>7.976756356872595</v>
+        <v>6.10968812007853</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.118625188975129</v>
       </c>
       <c r="Q19">
-        <v>13.53773602349175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.23103449417908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85479996375005</v>
+        <v>28.85943516820965</v>
       </c>
       <c r="C20">
-        <v>16.17007771775133</v>
+        <v>16.51678554606688</v>
       </c>
       <c r="D20">
-        <v>6.48408345769858</v>
+        <v>6.519439126451392</v>
       </c>
       <c r="E20">
-        <v>8.373436483730366</v>
+        <v>8.267015848226922</v>
       </c>
       <c r="F20">
-        <v>20.48945943710527</v>
+        <v>19.87943830539535</v>
       </c>
       <c r="G20">
-        <v>22.39962118314687</v>
+        <v>21.23098735689574</v>
       </c>
       <c r="H20">
-        <v>1.626593427820602</v>
+        <v>1.582273974013132</v>
       </c>
       <c r="I20">
-        <v>2.617209592456945</v>
+        <v>2.559091164938945</v>
       </c>
       <c r="J20">
-        <v>8.784547201957208</v>
+        <v>8.950195421857154</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.156096590937545</v>
+        <v>10.72003096474605</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.27175392783399</v>
       </c>
       <c r="N20">
-        <v>8.88243737527792</v>
+        <v>6.101201329944073</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.061552258268696</v>
       </c>
       <c r="Q20">
-        <v>14.39053763423407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.93648396208081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.57525830105158</v>
+        <v>30.58358370895358</v>
       </c>
       <c r="C21">
-        <v>16.80609526299521</v>
+        <v>17.22441782073077</v>
       </c>
       <c r="D21">
-        <v>6.70495841514402</v>
+        <v>6.801430815103989</v>
       </c>
       <c r="E21">
-        <v>8.50407372083694</v>
+        <v>8.386147999190435</v>
       </c>
       <c r="F21">
-        <v>20.87165306013734</v>
+        <v>19.89323145862293</v>
       </c>
       <c r="G21">
-        <v>22.9884711116044</v>
+        <v>23.36122668341602</v>
       </c>
       <c r="H21">
-        <v>1.766266729105237</v>
+        <v>1.78354131688641</v>
       </c>
       <c r="I21">
-        <v>2.604006876696353</v>
+        <v>2.650660807623773</v>
       </c>
       <c r="J21">
-        <v>8.764230575628474</v>
+        <v>8.283290740719435</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.179845018986211</v>
+        <v>10.44157450482883</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.041979047984354</v>
       </c>
       <c r="N21">
-        <v>9.315168665185672</v>
+        <v>6.115517691026484</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.511274944465828</v>
       </c>
       <c r="Q21">
-        <v>14.49161990570838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.75664235374368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.65351288133695</v>
+        <v>31.66141306948021</v>
       </c>
       <c r="C22">
-        <v>17.20996080071339</v>
+        <v>17.66429202721476</v>
       </c>
       <c r="D22">
-        <v>6.827893907606622</v>
+        <v>6.967814530202732</v>
       </c>
       <c r="E22">
-        <v>8.562756000031699</v>
+        <v>8.440252539711924</v>
       </c>
       <c r="F22">
-        <v>21.09172543194871</v>
+        <v>19.85792483389841</v>
       </c>
       <c r="G22">
-        <v>23.34140517973081</v>
+        <v>24.84751803524176</v>
       </c>
       <c r="H22">
-        <v>1.926087620158125</v>
+        <v>1.926819412828431</v>
       </c>
       <c r="I22">
-        <v>2.726723156269797</v>
+        <v>2.753705485267644</v>
       </c>
       <c r="J22">
-        <v>8.747916934532165</v>
+        <v>7.883981115718433</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.192322690921091</v>
+        <v>10.26207227123304</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.892458387631447</v>
       </c>
       <c r="N22">
-        <v>9.545224109332036</v>
+        <v>6.122850210519825</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.751175425744563</v>
       </c>
       <c r="Q22">
-        <v>14.54833584651916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.61534645084886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.08093290075147</v>
+        <v>31.09136758895372</v>
       </c>
       <c r="C23">
-        <v>16.96213132777836</v>
+        <v>17.40387561174568</v>
       </c>
       <c r="D23">
-        <v>6.760928627217569</v>
+        <v>6.870794683509807</v>
       </c>
       <c r="E23">
-        <v>8.535542326243533</v>
+        <v>8.414400107522289</v>
       </c>
       <c r="F23">
-        <v>21.00268678698595</v>
+        <v>19.93665145619242</v>
       </c>
       <c r="G23">
-        <v>23.2015315126594</v>
+        <v>23.91397084780053</v>
       </c>
       <c r="H23">
-        <v>1.841759214762466</v>
+        <v>1.85208370453985</v>
       </c>
       <c r="I23">
-        <v>2.655915809193706</v>
+        <v>2.692628048002638</v>
       </c>
       <c r="J23">
-        <v>8.764904979338786</v>
+        <v>8.15264395878107</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.186964640205918</v>
+        <v>10.37235192294029</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.997088243917702</v>
       </c>
       <c r="N23">
-        <v>9.415599069268962</v>
+        <v>6.120639114305751</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.616126240101227</v>
       </c>
       <c r="Q23">
-        <v>14.53866421342507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.73590736010932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82614171695325</v>
+        <v>28.83078715451758</v>
       </c>
       <c r="C24">
-        <v>16.05117507749379</v>
+        <v>16.40575628117799</v>
       </c>
       <c r="D24">
-        <v>6.505768560433372</v>
+        <v>6.541329885363004</v>
       </c>
       <c r="E24">
-        <v>8.424993396443291</v>
+        <v>8.315968337265977</v>
       </c>
       <c r="F24">
-        <v>20.6399679745626</v>
+        <v>20.02032839406248</v>
       </c>
       <c r="G24">
-        <v>22.62608433001916</v>
+        <v>21.4290923262462</v>
       </c>
       <c r="H24">
-        <v>1.607467531845682</v>
+        <v>1.562887201447261</v>
       </c>
       <c r="I24">
-        <v>2.59742342198324</v>
+        <v>2.535453327575741</v>
       </c>
       <c r="J24">
-        <v>8.824170588338021</v>
+        <v>8.989596269306857</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.163837131613945</v>
+        <v>10.76438752960943</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.324761429462741</v>
       </c>
       <c r="N24">
-        <v>8.922464713148953</v>
+        <v>6.106977698052441</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.104381341479396</v>
       </c>
       <c r="Q24">
-        <v>14.48789304795501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.02629715723113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17841433626268</v>
+        <v>26.18069015742675</v>
       </c>
       <c r="C25">
-        <v>15.01471795165147</v>
+        <v>15.18852457807715</v>
       </c>
       <c r="D25">
-        <v>6.22299458516356</v>
+        <v>6.253478568614594</v>
       </c>
       <c r="E25">
-        <v>8.303851207616793</v>
+        <v>8.21530520426999</v>
       </c>
       <c r="F25">
-        <v>20.2954384078622</v>
+        <v>19.78989438265733</v>
       </c>
       <c r="G25">
-        <v>22.07985497434288</v>
+        <v>20.86241405010161</v>
       </c>
       <c r="H25">
-        <v>1.983845914621602</v>
+        <v>1.912537921462006</v>
       </c>
       <c r="I25">
-        <v>2.899955187743167</v>
+        <v>2.803962062384338</v>
       </c>
       <c r="J25">
-        <v>8.906396592777192</v>
+        <v>9.115017576187247</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.137100717695628</v>
+        <v>11.13102782854772</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.627388395833206</v>
       </c>
       <c r="N25">
-        <v>8.361534000864157</v>
+        <v>6.082873844269533</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.528473276871612</v>
       </c>
       <c r="Q25">
-        <v>14.47521667264562</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.09137673867271</v>
       </c>
     </row>
   </sheetData>
